--- a/src/main/resources/example_excel/wanger-20180724194020.xlsx
+++ b/src/main/resources/example_excel/wanger-20180724194020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjiao/Downloads/µÁ»›≤‚ ‘ ˝æ›/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FDF4C-249F-464B-8F67-0E2720EDAB69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC70AEA-53E9-D949-AB6F-B3BB5058312D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1740" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -87,6 +88,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>C/C0 /%</t>
@@ -109,77 +111,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wanger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>王二</t>
   </si>
   <si>
-    <t>wang, er</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>女</t>
   </si>
   <si>
-    <t>测试部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left thumb</t>
-  </si>
-  <si>
-    <t>Left index finger</t>
-  </si>
-  <si>
-    <t>Left middle finger</t>
-  </si>
-  <si>
-    <t>Left ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left little thumb</t>
-  </si>
-  <si>
-    <t>Right thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right index finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right middle finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right little thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-  </si>
-  <si>
-    <t>Right knee joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right middle finger</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>左拇指</t>
   </si>
 </sst>
 </file>
@@ -225,6 +163,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -573,7 +512,7 @@
   <dimension ref="A1:G877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -594,19 +533,14 @@
       <c r="B1" s="3">
         <v>43305.819675925923</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -614,10 +548,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -625,10 +556,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -638,9 +566,6 @@
       <c r="B5" s="1">
         <v>33761</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -649,19 +574,13 @@
       <c r="B6">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -671,14 +590,6 @@
       <c r="B8">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -696,9 +607,6 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
@@ -716,9 +624,6 @@
       </c>
       <c r="E11" s="4">
         <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -738,9 +643,6 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
@@ -759,9 +661,6 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
@@ -780,9 +679,6 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
@@ -799,10 +695,7 @@
         <v>7.0711521412531644</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -822,11 +715,8 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>0.6</v>
       </c>
@@ -843,11 +733,8 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>0.7</v>
       </c>
@@ -865,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>0.8</v>
       </c>
@@ -880,10 +767,10 @@
         <v>14.142304282506329</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>0.9</v>
       </c>
@@ -901,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -916,10 +803,10 @@
         <v>81.318249624411393</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -937,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>1.2</v>
       </c>
@@ -955,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>1.3</v>
       </c>
@@ -973,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>1.4</v>
       </c>
@@ -988,10 +875,10 @@
         <v>121.9773744366171</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>1.5</v>
       </c>
@@ -1009,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>1.6</v>
       </c>
@@ -1027,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>1.7</v>
       </c>
@@ -1042,10 +929,10 @@
         <v>26.51682052969937</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>1.8</v>
       </c>
@@ -1063,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>1.9</v>
       </c>
@@ -1081,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1099,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>2.1</v>
       </c>
@@ -1114,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -14808,6 +14695,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{AC23E317-6895-3047-9225-F496DAC0C016}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{27164793-1F46-FD4D-8DCF-13166EF93810}">
+      <formula1>"左拇指,左食指,左中指,左无名指,左小指,右拇指,右食指,右中指,右无名指,右小指,左腕关节,右腕关节,左肘关节,右肘关节,左膝关节,右膝关节"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
